--- a/biology/Botanique/Beccariophoenix_alfredii/Beccariophoenix_alfredii.xlsx
+++ b/biology/Botanique/Beccariophoenix_alfredii/Beccariophoenix_alfredii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beccariophoenix alfredii est une espèce de palmiers (Arecaceae), découverte récemment, endémique de Madagascar. Le genre Beccariophoenix est étroitement apparenté au genre Cocos. Beccariophoenix alfredii ressemble beaucoup au cocotier, mais plus rustique, ce qui en fait un bon substitut au cocotier dans les climats plus froids.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Hautes terres de Madagascar. On la trouve entre 950 et 1 100 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Hautes terres de Madagascar. On la trouve entre 950 et 1 100 m d'altitude.
 </t>
         </is>
       </c>
